--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/40_İstanbul_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/40_İstanbul_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED10AB40-079E-4B74-B814-CDEBD61300FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EEBEEC-7261-4E3B-9C42-D20312AB2038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="706" xr2:uid="{920AAAFB-BFDA-4134-8FBB-586CE2C6525F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{E6F89F68-28AB-4DB2-BD3B-763399568EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F35D7A11-ECA9-4873-AAA5-0102EEA12A93}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8A0D6859-C39D-41CE-AE84-B1E298B4E105}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D4C40337-E22D-4A54-966B-AC86703A21A0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9235D423-B98A-4A80-9079-B56E2AC44267}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A0BEC646-5B0C-40D3-ADC6-316A7E39F3E2}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FDBC4A6B-2DA3-4286-832F-0110975C310C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E0740832-D149-4E30-8904-06C38F4B6A13}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DC620372-C215-45F8-B7D1-072582C29D5A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{45736B35-0415-49C4-B89F-372AF9453F4C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7ABEF51A-0339-4894-8DD0-49B44828FC6F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{564EE0A5-6059-4AE8-9C99-5377FDD60125}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B8303A73-DD61-4948-800A-C9AD1492F9DE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C4E2E4F2-32C6-4CA7-9D1A-EA48579A0480}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BD3B263E-0761-4198-BF32-22DF94EE4AD9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5A6C28-EFBA-4B77-B300-1F01CA5B4BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9374EC-7CE8-422B-AA20-6A52C34E5F46}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2686,17 +2686,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41B990B8-4269-4E38-AFAB-6E7F00414564}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94C1E42B-BE2B-45B5-BF28-480A3F6A37BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8A8153D-4774-4378-A74E-97A87CEE93EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9959F6F-E305-49D7-9C3F-9C960DA336EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A1F756B-815B-44DB-B687-74E87EB818A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1B14179-E276-4A61-8AA7-A46CFFE7BD24}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4B5EE18-1CC3-4E8B-A87C-2040CB9A9231}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E11F5FFE-DF22-4040-912C-F9EF348BB2C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{026084C0-689B-4A5F-BA83-CF12CE2C4956}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A450B5F6-B625-46D1-8653-000723C82CCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71BBF784-1EB5-42F1-BC9B-C735F7A59DDB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CDC566A-860F-4D05-B566-EE0AFEF3CF33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{094427E2-E65B-4E5B-BA4C-4C24E6F5B2E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C29C84B3-9782-4711-8D75-4C54AC9993DA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{137ED719-F66C-4004-9592-CB0314352AEC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{449942F1-BCEB-455D-BD00-36543AAD151A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28F58CE4-0701-4B93-A192-2D589E5616CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F10EDC6D-B072-431F-B7D0-62E9F9D0574F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC04D0E5-6200-42A9-9664-86B8264709E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{77434E59-F335-4F95-B3BB-387DA2CC935C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1B562FE0-2F05-4CBB-9A63-ED8D16E6E72D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EE07CC5-C749-4B78-9CE8-04E291DAA246}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516502E-E10B-4912-9606-7C8CC4833D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E3984F-606E-490D-8A40-9F0DAAAFF569}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -4039,17 +4039,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E2EC6F0-59B1-4D52-B2BF-D1D06863B020}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AFD05E7-B2D1-4078-86CF-F6758E4D96C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A79EFFF-E4C3-4590-999B-82EB0E5A23BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D863819-AC30-4F31-B64E-2C930A5AB0E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65823FE3-D673-446A-92FA-D4742C44ABB8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5170301-468E-4802-99B7-DDC704DE9424}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78184B89-F36B-447E-A972-04BBE4C7CCB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F308F5B-9082-4D1C-8C09-3DCFA4CE0F39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2C7EA635-2887-4D23-A461-E04EAA505529}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7E8EF8AF-A4B0-4561-8B21-45DB726AA4F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31D2BEE8-E9F9-4C36-92C9-4AA46DB02C0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C64707AE-E9A3-4982-9720-F3275B7AF54E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87B96735-47F6-45D1-8FEB-69058273AABE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21D9DFD1-7336-4C66-9E3A-8207F6DB6E23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1BBA266D-7DD8-48A7-BB9F-6E5B42FE0674}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D1B7605-A99A-411F-94E7-95D8CE7E26E0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3A60452-EDDA-4965-9780-22290A17732D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E72A24B-D019-4F31-830C-BAE4D36CF97F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6350219-3D6C-4263-A1D6-025AAE2CB8F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EB5129DF-A22E-49CC-B65A-6E0392D3CD76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5E547462-F975-4AC5-9B99-91616BBA8C00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72080A02-AB03-4805-84DE-8EE24D1DCD8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4062,7 +4062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AB0867-1F7E-407A-913B-A7B724A22F55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD857E-DEF8-4CD0-A55F-17F4562C6962}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5392,17 +5392,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BEE92F9-E6E2-43CE-90EF-A2D756196379}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06702740-C402-4352-AD14-4C72523415B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2DF2DBE-D476-4483-8B3B-9684E970A2C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{676D446B-22F4-47CB-AE69-F7FABFEF7CAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F70D809B-5192-403C-B919-7F9780A939FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE02DBF4-671C-4247-B379-32B663755901}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34239F51-DB08-49F3-856D-D5325DAA2643}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6308BDCA-09A0-4E19-B6C1-7F8DC811FD0B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B4D89366-5A75-4981-B482-CA85018E18E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2C354C31-77E0-429A-8F93-7D5873ECE700}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B87B3E0D-4442-47A2-B376-D3669AFA990F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C98BB0D-4D50-4BE2-9294-5C5165A8B87A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3BC6F5B-86D3-482A-980C-7067FA074AEA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8B5C39A-A04C-4898-984D-82B204DB2B26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{541FFE32-E06D-4C9E-9316-D4CE7446A7E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{419F5D8A-0E7B-43B5-AE4B-276D46DF5C7E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{870C6150-8021-418B-B727-4F2B13DCCFF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6ED40AD4-97AE-4687-8908-00365CD86E0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{175D0657-3EF7-4AA7-859E-25ED3A9053B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{39A7C44C-34B6-4E9F-A125-1CABE319826A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D0C1F73F-AF06-4494-A6A8-B57B5A73915D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EBFD972-9D0E-46C0-9320-6216233D342A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5415,7 +5415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E79710-C931-40A9-AEF9-FB51F4612741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2921B22F-37DB-448C-9F3C-587D106EFEC2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6745,17 +6745,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01BEBA72-5D8F-4BAA-BD75-0C75C470DFB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78A04EA0-E2BE-4E0F-8450-FB6A26E25E8A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B20B0084-8049-44D2-8E23-8EC1FD017F85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6C9C22F-A401-4F4C-A7E4-0F5498D211C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3B5FB90-25D7-43DE-B066-6A68FBFAFE87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D85E736B-1094-4246-A580-CA16F7D023EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FFD3AE0-99B2-4078-8969-4FD3A9F29E62}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F57E728A-9553-446D-A1AD-C331328A2A80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6148051C-08A4-4D22-81E3-7B9A7CFCC0FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D76665DD-DA52-4916-BD90-65AF97AA525A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F698407-9510-4EEF-8DAC-2A6F2AF650F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{127894AD-3221-4CD3-A490-862FC8BB2B31}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43790C78-9549-48CC-8989-4ED08D3B91B5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52969599-63B4-4180-9B9D-72D3ACA8BEF9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7D8CB85-CA51-40B1-A1B9-BDC1C60FCFC7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5650B7A0-84B3-4E63-8B48-A567256DE5CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8046A2EC-00DB-46C8-9CDA-BFCFDCC1A662}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B85E87F-3684-42AC-BFCD-A4A081FB5460}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94C9B1F4-2DC3-46EB-9528-477C567B49BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E8216546-0C25-4F04-A38D-27D3D11DC7BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AA149BBC-3815-4B52-A668-9E3D26955412}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1274574-5C32-48F1-BE2F-D0E38F2FBA38}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6768,7 +6768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7921B681-FD25-4DC5-AEE5-6B8C95D00471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AF676-C81D-4FF4-899A-B1219BB08437}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8097,17 +8097,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E9C83F8-B1CF-47E1-9CA3-A7CEAB77E8AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BA33C41-0270-4F42-AE50-57F7E8D5AFE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2BCCEFA1-71E8-49AA-9023-96B172493A65}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA8D597E-7612-40FF-83C0-CF487CF23126}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE135120-FD91-45C2-A899-E96CE6FB651F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE845CE8-8B67-4C3C-8ECE-086E879E0746}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0396D09-FAC9-45A4-83C4-EAB0925B2B8E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76C1E7C3-C887-459F-A73C-295897BDBBCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1E9B9313-F458-4BF7-8AE7-03A30F4EC314}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{463A891F-1B94-41A3-BE60-96D77C873CB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58C3B704-5CE8-4081-9352-D69E41EDDFE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D8F4306-F98E-4F7F-B3EB-6C55D8930E7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{389F055A-C730-4285-886E-DC83601697BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC37394C-72C2-4BD1-AEB9-30AD4ED50314}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{771B7B3D-A336-444B-93A5-689B5AA17AC2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E72B40C6-AE84-4E87-8174-30A016876A82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BF30808-35E7-47F0-82AF-0DDC3D678C7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EED3BC4-6463-4D84-A77C-A1AD7691532E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A4D4138-58BA-4F93-A8D8-958FE65808F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A9268F2D-C506-4B98-A242-B13C0B6F5A26}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A35E9416-5D1F-4AA2-B1D1-A11B72C80B11}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54DC28EE-5878-4960-A3A3-76B49404B2CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8120,7 +8120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D23DD5D-D55D-4649-B739-E0634756FC76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E6D2F-51C0-40A3-8EA3-57C6997CAE7B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9449,17 +9449,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5BA0BA1-E782-43DC-88C6-1FF6E2CB6DCC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C373CE5D-E78E-437F-9909-C59F58B2151F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B399F4B-264E-4376-BCAF-B1899128B82D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C28F057A-EC22-4B23-96C3-8CFAF9B1145F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6424D0C1-7F8C-4532-A762-79CA60E619CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9DA372B-FF5A-4D8D-82B8-0CAFA408583D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50888B9B-458E-4908-B23E-C4AE4404E99D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{047C79E4-9EE7-4B62-A75B-1E81D8A6828A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{63E27C72-04B6-48C6-B259-7E9FC24BE695}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{35044DD8-86EB-4644-93F0-34D38F3537F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D374C31-4D7F-4F87-8794-DDBB00906878}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4F0D01B-5D2D-4BE2-B670-D75CA592B96F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F44718D3-B8C6-4D0B-B365-FA1C96C3BB99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1152335F-BFC1-4B64-9A85-6BD34D0FD77A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6186994-8654-43D6-8CE5-C2EB58445BDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9305A40-7B89-4B37-B1BC-280B6981861A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F186009-B066-4653-AC88-0F07E3EACD49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BFDD830-AE10-4309-97F1-2861D44CE499}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A05F1873-3493-4065-BF77-74A0F4DC4DA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8673BE60-23AE-41A7-83EB-CBA517D3590D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{382F07B0-5882-4D12-B188-A986A81C73FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28BCCD8D-11A3-4FD6-AE4F-F8BD819086F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9472,7 +9472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9751F8-FED4-43C6-A98E-38325CD35A51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770EC74B-53E4-47D3-964E-0358EF51C9C4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10801,17 +10801,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D202CB0F-36F6-4423-AEA7-F5A31279EB15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{456EF0A5-902E-4E37-B346-CA51B4493794}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30A637BB-8E00-4174-8F31-FF3DA08B0AB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F612288D-7DB1-4380-9651-7818088A66B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC63EA4D-CA9B-4BE6-8EFC-CBFE37CFA3E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC61FE06-B341-49DC-B22E-445B735398FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8502A90D-6FE2-4515-A80E-6FB3358BB88B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEBFCC14-53A1-47C8-8FD2-5D7FFF7A2804}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3E6A3DD8-2A2C-4C4E-A892-E13C947DE3A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{67332C41-9730-465B-B1F8-59B645049847}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE8F2F29-09F1-436C-BDAB-33306BBC4440}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C94EA57-3394-4ACB-B21B-2D54C3A54813}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEE9DE66-A41E-478C-86EB-D6A0CA9AD9A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C7CB897-B960-4952-A837-0022AC9D9D03}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D27407D-AAF4-41A9-ACDA-B949ACEBF4A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FCAEB34D-40AE-448D-9E19-A272749885D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A13EEF6D-CC39-46AC-B38F-E3BAEB40473A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E51E327-6931-4497-9281-BA862DA001CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC214381-58C4-4483-84A6-6FE6E3DE75F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{74FA7749-4304-45DC-87BB-EBFB0072AF17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EF0A85C-F083-41FF-9871-DA7977D71B02}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B503484-4464-46AF-83A6-63FCEAF834E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10824,7 +10824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5A98D4-8178-40AC-8EF6-0A9CBCC385E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED3061-97F2-4B73-850D-06DC433202A2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12153,17 +12153,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A4709F4-153F-4DFB-A32A-F9452B6DF741}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BAE29AC-3D3D-4967-A9B9-04B7E99E95D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49D100C5-CB9D-40D8-9DCE-11CEF919D31B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55663776-9F44-4029-93B5-107E22BDFE70}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19200C71-B10F-48B2-A3F7-61824FEE43C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF1F901E-1918-4AD8-AEB6-068E923C08F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53C37F89-EC66-4969-A7C7-B8CD817E00B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4526DF13-6684-4E71-8799-C7D2AE0444E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C819A248-5F60-4C36-8D95-09E57A07B4CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{49150335-9230-4A4B-B297-F33A148D3EB4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A688F185-C67E-49EA-8BA2-95A46E027E49}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD7C67AA-8B20-4ABE-9ADE-07E33AA89120}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{396AC08C-4770-4824-9CB8-617E2B5FD2B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8AA8CD45-EF0E-4A29-BE8F-F836A3D680B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33013563-4C39-4BAC-8D55-990BB4A14C7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF8CC962-2E51-494B-B880-402A2CBEC2B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{491CDC2F-DC99-4597-8343-30C5C95398FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5605AB20-1EC2-4D30-8206-6C2A79F7AFA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{415103E8-B975-417B-B89A-6A2896637FAB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{017501A7-3C85-4D2F-A6CE-A1EC15D22551}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC5C41D6-7596-4EAE-911E-4F25D03A4A3E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54C09A9A-6D82-465C-AFFD-384ABA8CFBEB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12176,7 +12176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C291FD6-B1FE-41D2-8D77-BB925CBAE8E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90358C-255D-4ED4-9578-C3B515AA8130}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13505,17 +13505,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EDC5A7C-11AC-49E8-86DE-1FCF8E01BB6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{648AB8A9-1B3D-4E89-A2C9-BA7790BC9542}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42119C0D-8809-46FD-B5DE-F8FA450FEA69}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A8BD527-16D6-4F0C-8AA5-01C45BC1CBBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A95F6BAC-9B02-410A-98E9-1A154DA4D70F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C561CB2-2C2D-4B76-A5DF-F7CDE0CA6402}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26C4EFD9-FB31-4148-B81C-673F8857F1A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF4B6A1D-2B7F-4616-A3AB-1DDA53499D08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F4533903-E808-4943-ABAF-82BE6E5A02F7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1B49C9D9-8A7D-41EA-BFFD-C7A79EC5DEA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F38D6CA-F0A8-4E77-A49E-16BAA3F88DE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1E21D70-14CD-4C8C-9B10-1C3FCC4C270E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{332CA3E1-40B8-43C5-B8C2-1778B07A5CDE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B5AC5E7-3384-4CE6-8517-25F6B17C0C82}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D76F488-3834-47BD-B69A-A86CE3345905}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78CDAA58-7D1B-4AB6-8B9F-7D412A392290}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6149BD3E-11A9-4277-AC16-5185BF8D1DC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5269CA09-8C6E-4D60-9B5C-B22A34D50549}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EBEF543-6D1C-4739-AC78-FAE7B45EC479}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6CD00455-FD39-4E44-8620-6E2B93DFCEF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{93A31949-3E31-468D-9C87-DE0B43EB1D5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22614CA7-92AE-4CA4-A57F-4389818469C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13528,7 +13528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E711F1B-BD0E-4972-A1D3-E34DA612A62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2033F8-E406-4FE1-BFC3-AF17EC1C4519}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14857,17 +14857,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B8B116D-4002-4465-80A6-1558D7550310}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AED9063-113A-404A-A9D3-6FA92699E29A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{83CC4BD9-524D-4C3D-BE76-D40B3F3BF377}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E10C45C-9982-44FE-9157-3791DC047DC9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E870F7E8-40E8-4C4E-B329-1A252D9345AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CFF5210-9815-4578-94D3-256674660B4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BED7E845-9DB9-437F-99EC-BD1244DC4FB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CED9C438-4BB9-4D2D-8039-926871D2424C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F642000B-1077-434E-A9DD-F6E839DD4D13}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D2B438D9-2D82-4700-9048-3FEC2A3E95CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE7DCA14-E9D4-4E57-966A-11ABD0571293}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DED24CB9-D8C0-4E77-B55D-6FAC8A52E908}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFF648AC-0CF9-433A-BADF-CFB111E45824}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46BAE854-6180-477B-ACE3-ABE323B6C8B2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3343A014-1D28-4471-8E35-601B965ED736}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{071FEC91-F590-41B3-9D1E-DB2F0565025A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C4B324C-01C6-4262-AA95-5DB13F6E418F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1049E4FB-500E-4937-9AFF-6CA4369B682F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D896643-2B6D-4D03-9DC5-503880C31BE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F3CE860D-B817-4E80-90C9-202B94259D0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{39C84207-714C-4B67-9665-7E0C67E24948}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BD88127-726B-4F3C-BA7A-0E9D5C0EE44A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14880,7 +14880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD842AC-BEE2-4294-8C4B-0F2A3AD50401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A83AC7A-B81A-486D-ABD3-ACE50A60BAFD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16209,17 +16209,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A5A81CD-79B9-4F38-AA6E-486280EA6365}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D0F779C-E943-4A84-89D9-2EA6817993CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD875ECA-5B59-422D-9F30-27F5F4DB2FB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8C40C68-E517-473F-A271-DA4BD63168FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D11219D7-A448-4F37-95E8-8254124C8C82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A61A4CBC-A494-4A25-9E92-79A6FA9F9EEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{689C4B11-FE06-4C59-B4CE-7037310E50BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F947345-D4BB-459B-942F-6B2C8D6105D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{841345BC-ABC0-4F9A-9D9D-5B610EA23CA3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3403B77D-0DD8-4620-90A0-71A0487E3CE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{578ACE20-EC42-4501-899A-E865B897E3FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCB25077-2761-4158-A148-D1E5D2362A5A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33B383A4-49C9-4828-B02C-9E2CB9080F4C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF977798-6D16-4302-A012-26A73327E459}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{498E55DA-24C8-4407-8B5D-E381C07E1E0F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DFE1F4E-C47A-4544-8B32-F06D86FFCC0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17B97DFD-D2AF-4AD8-B23B-02FC5325620A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42FBF227-4A87-4DA1-AEF9-B9B45FDCBBF1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0F7D4D0-15BD-4543-8D9C-64FC1F7CA810}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4747C6CA-34FB-46A4-BEDF-AD0F93DF3DE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{25084656-0180-48B1-BEDE-C62C55D12CD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DFFA579-0BF6-48CB-9BFE-054DA53D2AF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16232,7 +16232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F0C400-6702-47C4-853B-E868827A0E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE22095-105A-45EF-98AF-ED6CAE2062B6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17561,17 +17561,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D365492-272F-491B-BE5C-36A2DCDC40A5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F1D982F-ACEF-4759-821D-4DDE6579A2AF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D147A433-02F4-4C06-A75E-7928B7CCB276}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{135CBB94-F6CB-4E3C-B01D-FAC1854014E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D3BABDB-F746-43F8-B9FF-1B29FC8AE736}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1BCBCCA-2942-4C46-BBF5-9A9F99FB8BEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2437CC1-3760-4600-86D3-D87090160660}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AB43D66-1BE1-41D9-A167-D1AF769D4325}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CA29CB0A-2F97-45F6-938B-2D38B3D2ED0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{003EA339-14E8-4EB3-8B0D-891F2026DA10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51795476-D677-4800-8B3B-64E8B8C21C33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3646F583-F1AB-454C-9089-6B63FD3CF110}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2B976A1-0060-4C33-A347-5E716F6FCFF7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC358481-7225-4237-9B36-B4343A8413AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D60A6A51-183D-4361-B8E8-E9DFB5120F85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDED214A-74DF-4F2D-BD5F-E70C8C503DFF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{64314524-974B-449E-A0E0-91575559A326}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB4F4764-433F-4019-B2B5-FE0E0CE129D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{883C1EE4-FE99-410B-9D74-E6F979650E60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{55EE551B-C1B8-4A23-9CCA-8C59E9B0B5A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4FB32225-0B34-4FAD-9A48-B00448B9D450}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69744A4F-F117-4346-9319-A519D83EA5DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
